--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2023年度\101_データ活用推進班★\104_オープンデータ\2023\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56D62CE-7BC4-4461-8F52-8CC2EC1DA54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{739EBA6F-79EA-42AA-9EF7-7AF298E58683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="診療所台帳" localSheetId="0">公開データ!$B$1:$DN$2</definedName>
     <definedName name="診療所台帳">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="756">
   <si>
     <t>施設区分</t>
   </si>
@@ -703,51 +703,54 @@
     <t>鶴崎　成幸</t>
   </si>
   <si>
+    <t>脳神経内科 糖尿病・代謝内科</t>
+  </si>
+  <si>
+    <t>昭和 48年07月16日</t>
+  </si>
+  <si>
+    <t>嶋田病院</t>
+  </si>
+  <si>
+    <t>860-0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熊本市中央区練兵町２４番地 </t>
+  </si>
+  <si>
+    <t>096-324-3515</t>
+  </si>
+  <si>
+    <t>医療法人社団 如水会</t>
+  </si>
+  <si>
+    <t>池田　拡行</t>
+  </si>
+  <si>
+    <t>平成 15年06月16日</t>
+  </si>
+  <si>
+    <t>済生会熊本病院</t>
+  </si>
+  <si>
+    <t>861-4193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熊本市南区近見５丁目３－１ </t>
+  </si>
+  <si>
+    <t>096-351-8000</t>
+  </si>
+  <si>
+    <t>社会福祉法人　恩賜財団　済生会</t>
+  </si>
+  <si>
+    <t>中尾　浩一</t>
+  </si>
+  <si>
     <t>脳神経内科</t>
   </si>
   <si>
-    <t>昭和 48年07月16日</t>
-  </si>
-  <si>
-    <t>嶋田病院</t>
-  </si>
-  <si>
-    <t>860-0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">熊本市中央区練兵町２４番地 </t>
-  </si>
-  <si>
-    <t>096-324-3515</t>
-  </si>
-  <si>
-    <t>医療法人社団 如水会</t>
-  </si>
-  <si>
-    <t>池田　拡行</t>
-  </si>
-  <si>
-    <t>平成 15年06月16日</t>
-  </si>
-  <si>
-    <t>済生会熊本病院</t>
-  </si>
-  <si>
-    <t>861-4193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">熊本市南区近見５丁目３－１ </t>
-  </si>
-  <si>
-    <t>096-351-8000</t>
-  </si>
-  <si>
-    <t>社会福祉法人　恩賜財団　済生会</t>
-  </si>
-  <si>
-    <t>中尾　浩一</t>
-  </si>
-  <si>
     <t>平成 07年04月01日</t>
   </si>
   <si>
@@ -964,7 +967,7 @@
     <t>国立大学法人　熊本大学</t>
   </si>
   <si>
-    <t>馬場　秀夫</t>
+    <t>平井　俊範</t>
   </si>
   <si>
     <t>昭和 24年07月01日</t>
@@ -1150,7 +1153,7 @@
     <t>医療法人社団　岡山会</t>
   </si>
   <si>
-    <t>矢野　眞治郎</t>
+    <t>岡山　洋二</t>
   </si>
   <si>
     <t>昭和 39年04月08日</t>
@@ -1189,7 +1192,7 @@
     <t>医療法人　熊南会</t>
   </si>
   <si>
-    <t>坂田　浩章</t>
+    <t>大島　卓</t>
   </si>
   <si>
     <t>昭和 44年01月31日</t>
@@ -1462,7 +1465,7 @@
     <t>医療法人  起生会</t>
   </si>
   <si>
-    <t>吉田元樹</t>
+    <t>吉田　俊彰</t>
   </si>
   <si>
     <t>糖尿病・代謝内科</t>
@@ -1765,7 +1768,7 @@
     <t>蓮田　健</t>
   </si>
   <si>
-    <t>糖尿病代謝内科 内視鏡婦人科</t>
+    <t>内視鏡婦人科</t>
   </si>
   <si>
     <t>昭和 53年04月01日</t>
@@ -1783,7 +1786,7 @@
     <t>医療法人　朝日野会</t>
   </si>
   <si>
-    <t>野村　一俊</t>
+    <t>清川　哲志</t>
   </si>
   <si>
     <t>糖尿病・代謝内科 乳腺・内分泌外科  血管外科</t>
@@ -2158,7 +2161,7 @@
     <t>社会医療法人令和会</t>
   </si>
   <si>
-    <t>生田　拓也</t>
+    <t>平川　敬</t>
   </si>
   <si>
     <t>血管外科</t>
@@ -2255,6 +2258,9 @@
   </si>
   <si>
     <t>坂本　憲史</t>
+  </si>
+  <si>
+    <t>内視鏡内科</t>
   </si>
   <si>
     <t>平成 24年08月01日</t>
@@ -2800,7 +2806,7 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DN3" sqref="DN3"/>
+      <selection activeCell="DO4" sqref="DO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3179,22 +3185,22 @@
         <v>118</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
@@ -3334,10 +3340,10 @@
         <v>125</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3345,22 +3351,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
@@ -3534,10 +3540,10 @@
         <v>125</v>
       </c>
       <c r="DM3" s="11" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="DN3" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3545,22 +3551,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -3698,10 +3704,10 @@
       <c r="DK4" s="12"/>
       <c r="DL4" s="12"/>
       <c r="DM4" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DN4" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3709,22 +3715,22 @@
         <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -3864,10 +3870,10 @@
         <v>125</v>
       </c>
       <c r="DM5" s="11" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="DN5" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3875,22 +3881,22 @@
         <v>118</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -3923,7 +3929,9 @@
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="U6" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -3934,9 +3942,7 @@
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
-      <c r="AD6" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -4050,10 +4056,10 @@
         <v>125</v>
       </c>
       <c r="DM6" s="11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="DN6" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4061,22 +4067,22 @@
         <v>118</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H7" s="9">
         <v>193</v>
@@ -4201,7 +4207,7 @@
       <c r="DL7" s="12"/>
       <c r="DM7" s="11"/>
       <c r="DN7" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,22 +4215,22 @@
         <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -4366,10 +4372,10 @@
         <v>125</v>
       </c>
       <c r="DM8" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="DN8" s="11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4377,22 +4383,22 @@
         <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -4528,10 +4534,10 @@
       <c r="DK9" s="12"/>
       <c r="DL9" s="12"/>
       <c r="DM9" s="11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="DN9" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4539,22 +4545,22 @@
         <v>118</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -4576,7 +4582,9 @@
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -4605,7 +4613,9 @@
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
+      <c r="AS10" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12"/>
@@ -4614,9 +4624,7 @@
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BB10" s="12"/>
       <c r="BC10" s="12"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
@@ -4637,9 +4645,7 @@
       <c r="BT10" s="12"/>
       <c r="BU10" s="12"/>
       <c r="BV10" s="12"/>
-      <c r="BW10" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BW10" s="12"/>
       <c r="BX10" s="12"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -4682,12 +4688,12 @@
       <c r="DI10" s="12"/>
       <c r="DJ10" s="12"/>
       <c r="DK10" s="12"/>
-      <c r="DL10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM10" s="11"/>
+      <c r="DL10" s="12"/>
+      <c r="DM10" s="11" t="s">
+        <v>700</v>
+      </c>
       <c r="DN10" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4695,22 +4701,22 @@
         <v>118</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -4842,10 +4848,10 @@
       <c r="DK11" s="12"/>
       <c r="DL11" s="12"/>
       <c r="DM11" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN11" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4853,22 +4859,22 @@
         <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -5004,10 +5010,10 @@
         <v>125</v>
       </c>
       <c r="DM12" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DN12" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5015,22 +5021,22 @@
         <v>118</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -5159,7 +5165,7 @@
       <c r="DL13" s="12"/>
       <c r="DM13" s="11"/>
       <c r="DN13" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5167,22 +5173,22 @@
         <v>118</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -5319,7 +5325,7 @@
       <c r="DL14" s="12"/>
       <c r="DM14" s="11"/>
       <c r="DN14" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5327,22 +5333,22 @@
         <v>118</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -5475,7 +5481,7 @@
       </c>
       <c r="DM15" s="11"/>
       <c r="DN15" s="11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5483,22 +5489,22 @@
         <v>118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -5644,10 +5650,10 @@
       <c r="DK16" s="12"/>
       <c r="DL16" s="12"/>
       <c r="DM16" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DN16" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5655,22 +5661,22 @@
         <v>118</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -5807,7 +5813,7 @@
       </c>
       <c r="DM17" s="11"/>
       <c r="DN17" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5815,22 +5821,22 @@
         <v>118</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -5956,10 +5962,10 @@
       <c r="DK18" s="12"/>
       <c r="DL18" s="12"/>
       <c r="DM18" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DN18" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6125,22 +6131,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -6238,7 +6244,9 @@
       <c r="CA20" s="12"/>
       <c r="CB20" s="12"/>
       <c r="CC20" s="12"/>
-      <c r="CD20" s="12"/>
+      <c r="CD20" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="CE20" s="12"/>
       <c r="CF20" s="12"/>
       <c r="CG20" s="12"/>
@@ -6277,7 +6285,7 @@
       </c>
       <c r="DM20" s="11"/>
       <c r="DN20" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6285,22 +6293,22 @@
         <v>118</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
@@ -6430,10 +6438,10 @@
       <c r="DK21" s="12"/>
       <c r="DL21" s="12"/>
       <c r="DM21" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="DN21" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6441,22 +6449,22 @@
         <v>118</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -6586,10 +6594,10 @@
         <v>125</v>
       </c>
       <c r="DM22" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DN22" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6597,22 +6605,22 @@
         <v>118</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
@@ -6749,7 +6757,7 @@
       <c r="DL23" s="12"/>
       <c r="DM23" s="11"/>
       <c r="DN23" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6757,22 +6765,22 @@
         <v>118</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
@@ -6919,7 +6927,7 @@
       <c r="DL24" s="12"/>
       <c r="DM24" s="11"/>
       <c r="DN24" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6927,22 +6935,22 @@
         <v>118</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -7088,10 +7096,10 @@
       <c r="DK25" s="12"/>
       <c r="DL25" s="12"/>
       <c r="DM25" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DN25" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7099,22 +7107,22 @@
         <v>118</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H26" s="9">
         <v>100</v>
@@ -7239,7 +7247,7 @@
       <c r="DL26" s="12"/>
       <c r="DM26" s="11"/>
       <c r="DN26" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7247,22 +7255,22 @@
         <v>118</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -7397,7 +7405,7 @@
       <c r="DL27" s="12"/>
       <c r="DM27" s="11"/>
       <c r="DN27" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7593,22 +7601,22 @@
         <v>118</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -7743,7 +7751,7 @@
       <c r="DL29" s="12"/>
       <c r="DM29" s="11"/>
       <c r="DN29" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7751,22 +7759,22 @@
         <v>118</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
@@ -7904,10 +7912,10 @@
       <c r="DK30" s="12"/>
       <c r="DL30" s="12"/>
       <c r="DM30" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DN30" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8094,10 +8102,10 @@
         <v>125</v>
       </c>
       <c r="DM31" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN31" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8263,22 +8271,22 @@
         <v>118</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
@@ -8561,22 +8569,22 @@
         <v>118</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
@@ -8720,10 +8728,10 @@
         <v>125</v>
       </c>
       <c r="DM35" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="DN35" s="11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8731,22 +8739,22 @@
         <v>118</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H36" s="9">
         <v>0</v>
@@ -8898,10 +8906,10 @@
         <v>125</v>
       </c>
       <c r="DM36" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DN36" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8909,22 +8917,22 @@
         <v>118</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H37" s="9">
         <v>135</v>
@@ -9051,7 +9059,7 @@
       <c r="DL37" s="12"/>
       <c r="DM37" s="11"/>
       <c r="DN37" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9059,22 +9067,22 @@
         <v>118</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H38" s="9">
         <v>0</v>
@@ -9198,10 +9206,10 @@
       <c r="DK38" s="12"/>
       <c r="DL38" s="12"/>
       <c r="DM38" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DN38" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9209,22 +9217,22 @@
         <v>118</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
@@ -9363,7 +9371,7 @@
       </c>
       <c r="DM39" s="11"/>
       <c r="DN39" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9523,7 +9531,7 @@
       <c r="DL40" s="12"/>
       <c r="DM40" s="11"/>
       <c r="DN40" s="11" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="41" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9705,7 +9713,7 @@
       </c>
       <c r="DM41" s="11"/>
       <c r="DN41" s="11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9713,22 +9721,22 @@
         <v>118</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H42" s="9">
         <v>0</v>
@@ -9871,7 +9879,7 @@
       <c r="DL42" s="12"/>
       <c r="DM42" s="11"/>
       <c r="DN42" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10183,22 +10191,22 @@
         <v>118</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
@@ -10210,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -10337,7 +10345,7 @@
       </c>
       <c r="DM45" s="11"/>
       <c r="DN45" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10345,22 +10353,22 @@
         <v>118</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H46" s="9">
         <v>0</v>
@@ -10546,10 +10554,10 @@
         <v>125</v>
       </c>
       <c r="DM46" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DN46" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10641,7 +10649,9 @@
       <c r="AZ47" s="12"/>
       <c r="BA47" s="12"/>
       <c r="BB47" s="12"/>
-      <c r="BC47" s="12"/>
+      <c r="BC47" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BD47" s="12"/>
       <c r="BE47" s="12"/>
       <c r="BF47" s="12"/>
@@ -10717,22 +10727,22 @@
         <v>118</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H48" s="9">
         <v>0</v>
@@ -10861,7 +10871,7 @@
       <c r="DL48" s="12"/>
       <c r="DM48" s="11"/>
       <c r="DN48" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10869,22 +10879,22 @@
         <v>118</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
@@ -11036,10 +11046,10 @@
         <v>125</v>
       </c>
       <c r="DM49" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="DN49" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11047,22 +11057,22 @@
         <v>118</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H50" s="9">
         <v>0</v>
@@ -11180,7 +11190,9 @@
         <v>125</v>
       </c>
       <c r="CK50" s="12"/>
-      <c r="CL50" s="12"/>
+      <c r="CL50" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="CM50" s="12"/>
       <c r="CN50" s="12"/>
       <c r="CO50" s="12"/>
@@ -11210,10 +11222,10 @@
         <v>125</v>
       </c>
       <c r="DM50" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="DN50" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11221,22 +11233,22 @@
         <v>118</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -11363,7 +11375,7 @@
       <c r="DL51" s="12"/>
       <c r="DM51" s="11"/>
       <c r="DN51" s="11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="52" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11371,22 +11383,22 @@
         <v>118</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H52" s="9">
         <v>0</v>
@@ -11521,7 +11533,7 @@
       </c>
       <c r="DM52" s="11"/>
       <c r="DN52" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11529,22 +11541,22 @@
         <v>118</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H53" s="9">
         <v>0</v>
@@ -11671,7 +11683,7 @@
       </c>
       <c r="DM53" s="11"/>
       <c r="DN53" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11679,22 +11691,22 @@
         <v>118</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H54" s="9">
         <v>200</v>
@@ -11823,7 +11835,7 @@
       <c r="DL54" s="12"/>
       <c r="DM54" s="11"/>
       <c r="DN54" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11831,22 +11843,22 @@
         <v>118</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H55" s="9">
         <v>0</v>
@@ -11863,14 +11875,10 @@
       <c r="L55" s="9">
         <v>0</v>
       </c>
-      <c r="M55" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
@@ -11878,9 +11886,7 @@
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
@@ -11980,10 +11986,10 @@
         <v>125</v>
       </c>
       <c r="DM55" s="11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DN55" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11991,22 +11997,22 @@
         <v>118</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H56" s="9">
         <v>0</v>
@@ -12147,7 +12153,7 @@
       <c r="DL56" s="12"/>
       <c r="DM56" s="11"/>
       <c r="DN56" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12155,22 +12161,22 @@
         <v>118</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H57" s="9">
         <v>0</v>
@@ -12317,7 +12323,7 @@
       <c r="DL57" s="12"/>
       <c r="DM57" s="11"/>
       <c r="DN57" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12325,22 +12331,22 @@
         <v>118</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H58" s="9">
         <v>0</v>
@@ -12468,10 +12474,10 @@
       <c r="DK58" s="12"/>
       <c r="DL58" s="12"/>
       <c r="DM58" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DN58" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12479,22 +12485,22 @@
         <v>118</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H59" s="9">
         <v>0</v>
@@ -12626,10 +12632,10 @@
       <c r="DK59" s="12"/>
       <c r="DL59" s="12"/>
       <c r="DM59" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN59" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12637,22 +12643,22 @@
         <v>118</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H60" s="9">
         <v>190</v>
@@ -12783,7 +12789,7 @@
       <c r="DL60" s="12"/>
       <c r="DM60" s="11"/>
       <c r="DN60" s="11" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12959,22 +12965,22 @@
         <v>118</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H62" s="9">
         <v>0</v>
@@ -13118,10 +13124,10 @@
       <c r="DK62" s="12"/>
       <c r="DL62" s="12"/>
       <c r="DM62" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="DN62" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13129,22 +13135,22 @@
         <v>118</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H63" s="9">
         <v>0</v>
@@ -13282,10 +13288,10 @@
       <c r="DK63" s="12"/>
       <c r="DL63" s="12"/>
       <c r="DM63" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="DN63" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13293,22 +13299,22 @@
         <v>118</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H64" s="9">
         <v>0</v>
@@ -13381,9 +13387,7 @@
         <v>125</v>
       </c>
       <c r="AZ64" s="12"/>
-      <c r="BA64" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BA64" s="12"/>
       <c r="BB64" s="12" t="s">
         <v>125</v>
       </c>
@@ -13468,10 +13472,10 @@
         <v>125</v>
       </c>
       <c r="DM64" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN64" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13479,22 +13483,22 @@
         <v>118</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H65" s="9">
         <v>120</v>
@@ -13621,7 +13625,7 @@
       <c r="DL65" s="12"/>
       <c r="DM65" s="11"/>
       <c r="DN65" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13629,22 +13633,22 @@
         <v>118</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H66" s="9">
         <v>234</v>
@@ -13771,7 +13775,7 @@
       <c r="DL66" s="12"/>
       <c r="DM66" s="11"/>
       <c r="DN66" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13779,22 +13783,22 @@
         <v>118</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H67" s="9">
         <v>78</v>
@@ -13942,10 +13946,10 @@
         <v>125</v>
       </c>
       <c r="DM67" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN67" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13953,22 +13957,22 @@
         <v>118</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H68" s="9">
         <v>0</v>
@@ -14101,7 +14105,7 @@
       </c>
       <c r="DM68" s="11"/>
       <c r="DN68" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14109,22 +14113,22 @@
         <v>118</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H69" s="9">
         <v>0</v>
@@ -14259,7 +14263,7 @@
       <c r="DL69" s="12"/>
       <c r="DM69" s="11"/>
       <c r="DN69" s="11" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14267,22 +14271,22 @@
         <v>118</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H70" s="9">
         <v>0</v>
@@ -14427,7 +14431,7 @@
       <c r="DL70" s="12"/>
       <c r="DM70" s="11"/>
       <c r="DN70" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14435,22 +14439,22 @@
         <v>118</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H71" s="9">
         <v>160</v>
@@ -14575,7 +14579,7 @@
       <c r="DL71" s="12"/>
       <c r="DM71" s="11"/>
       <c r="DN71" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14583,22 +14587,22 @@
         <v>118</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H72" s="9">
         <v>198</v>
@@ -14727,7 +14731,7 @@
       <c r="DL72" s="12"/>
       <c r="DM72" s="11"/>
       <c r="DN72" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14735,22 +14739,22 @@
         <v>118</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H73" s="9">
         <v>198</v>
@@ -14875,7 +14879,7 @@
       <c r="DL73" s="12"/>
       <c r="DM73" s="11"/>
       <c r="DN73" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14883,22 +14887,22 @@
         <v>118</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H74" s="9">
         <v>0</v>
@@ -14913,7 +14917,7 @@
         <v>101</v>
       </c>
       <c r="L74" s="9">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12" t="s">
@@ -15048,10 +15052,10 @@
         <v>125</v>
       </c>
       <c r="DM74" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN74" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -15059,22 +15063,22 @@
         <v>118</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H75" s="9">
         <v>199</v>
@@ -15201,7 +15205,7 @@
       <c r="DL75" s="12"/>
       <c r="DM75" s="11"/>
       <c r="DN75" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -15209,22 +15213,22 @@
         <v>118</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H76" s="9">
         <v>0</v>
@@ -15365,7 +15369,7 @@
       <c r="DL76" s="12"/>
       <c r="DM76" s="11"/>
       <c r="DN76" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -15373,22 +15377,22 @@
         <v>118</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H77" s="9">
         <v>180</v>
@@ -15513,7 +15517,7 @@
       <c r="DL77" s="12"/>
       <c r="DM77" s="11"/>
       <c r="DN77" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -15521,22 +15525,22 @@
         <v>118</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H78" s="9">
         <v>221</v>
@@ -15665,7 +15669,7 @@
       </c>
       <c r="DM78" s="11"/>
       <c r="DN78" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -15673,22 +15677,22 @@
         <v>118</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H79" s="9">
         <v>0</v>
@@ -15833,7 +15837,7 @@
       </c>
       <c r="DM79" s="11"/>
       <c r="DN79" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -15841,22 +15845,22 @@
         <v>118</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H80" s="9">
         <v>0</v>
@@ -15998,10 +16002,10 @@
       <c r="DK80" s="12"/>
       <c r="DL80" s="12"/>
       <c r="DM80" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="DN80" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16009,22 +16013,22 @@
         <v>118</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H81" s="9">
         <v>198</v>
@@ -16157,7 +16161,7 @@
       <c r="DL81" s="12"/>
       <c r="DM81" s="11"/>
       <c r="DN81" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16165,22 +16169,22 @@
         <v>118</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H82" s="9">
         <v>0</v>
@@ -16322,10 +16326,10 @@
         <v>125</v>
       </c>
       <c r="DM82" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DN82" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16333,22 +16337,22 @@
         <v>118</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H83" s="9">
         <v>250</v>
@@ -16475,7 +16479,7 @@
       <c r="DL83" s="12"/>
       <c r="DM83" s="11"/>
       <c r="DN83" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16483,22 +16487,22 @@
         <v>118</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H84" s="9">
         <v>0</v>
@@ -16652,10 +16656,10 @@
       <c r="DK84" s="12"/>
       <c r="DL84" s="12"/>
       <c r="DM84" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="DN84" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16663,22 +16667,22 @@
         <v>118</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H85" s="9">
         <v>0</v>
@@ -16780,9 +16784,7 @@
       <c r="BW85" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BX85" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BX85" s="12"/>
       <c r="BY85" s="12" t="s">
         <v>125</v>
       </c>
@@ -16835,7 +16837,7 @@
       <c r="DL85" s="12"/>
       <c r="DM85" s="11"/>
       <c r="DN85" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16843,22 +16845,22 @@
         <v>118</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H86" s="9">
         <v>0</v>
@@ -17003,7 +17005,7 @@
       <c r="DL86" s="12"/>
       <c r="DM86" s="11"/>
       <c r="DN86" s="11" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="87" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17011,22 +17013,22 @@
         <v>118</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H87" s="9">
         <v>0</v>
@@ -17163,7 +17165,7 @@
       <c r="DL87" s="12"/>
       <c r="DM87" s="11"/>
       <c r="DN87" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17171,22 +17173,22 @@
         <v>118</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H88" s="9">
         <v>50</v>
@@ -17370,10 +17372,10 @@
         <v>125</v>
       </c>
       <c r="DM88" s="11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DN88" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17381,22 +17383,22 @@
         <v>118</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H89" s="9">
         <v>50</v>
@@ -17584,10 +17586,10 @@
         <v>125</v>
       </c>
       <c r="DM89" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="DN89" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17595,22 +17597,22 @@
         <v>118</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H90" s="9">
         <v>0</v>
@@ -17788,10 +17790,10 @@
         <v>125</v>
       </c>
       <c r="DM90" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="DN90" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17799,22 +17801,22 @@
         <v>118</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H91" s="9">
         <v>176</v>
@@ -17941,7 +17943,7 @@
       <c r="DL91" s="12"/>
       <c r="DM91" s="11"/>
       <c r="DN91" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -18268,7 +18270,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0615009B-D25D-4D88-B1D4-1162C4EE26BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA674AB-B398-4A1E-8989-7222AB7F3ECF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18289,7 +18291,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4965ED47-C4F7-4DCC-8013-C36D9BD33606}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6050CD-9EDE-4974-9BB2-A8A03FDD9D64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18297,7 +18299,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240F60D2-E3E5-4E2D-A68C-033DB3CCB885}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A85F85-E350-4528-A2D7-1C5DB622E87D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\05_各課提出ファイル\R6.5\医療対策課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739EBA6F-79EA-42AA-9EF7-7AF298E58683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA86C8-5BDE-4D42-B533-C636554EB3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
     <t>防衛省</t>
   </si>
   <si>
-    <t>内藤　智子</t>
+    <t>中家　和宏</t>
   </si>
   <si>
     <t>昭和 32年08月01日</t>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DO4" sqref="DO4"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18270,7 +18270,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA674AB-B398-4A1E-8989-7222AB7F3ECF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD2FE15-58C1-4137-B634-F3B6B657C5CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18291,7 +18291,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6050CD-9EDE-4974-9BB2-A8A03FDD9D64}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D17FCE9-7EA4-4272-BA42-933EC2BF90D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18299,7 +18299,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A85F85-E350-4528-A2D7-1C5DB622E87D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA093EB-28AC-42A0-A458-E608D7811EC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\05_各課提出ファイル\R6.5\医療対策課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA86C8-5BDE-4D42-B533-C636554EB3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C92B727-8E60-42DC-A356-0AB8FE6AF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -991,7 +991,7 @@
     <t>木下　裕俊</t>
   </si>
   <si>
-    <t>桜十字熊本東病院</t>
+    <t>くまもと在宅支援病院</t>
   </si>
   <si>
     <t>862-0922</t>
@@ -2044,7 +2044,7 @@
     <t>伊東歯科口腔病院</t>
   </si>
   <si>
-    <t>861-0851</t>
+    <t>860-0851</t>
   </si>
   <si>
     <t xml:space="preserve">熊本市中央区子飼本町４番１４号 </t>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="DO7" sqref="DO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18270,7 +18270,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD2FE15-58C1-4137-B634-F3B6B657C5CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C706C-D88D-4E9C-87E7-8CC75E6A1A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18291,7 +18291,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D17FCE9-7EA4-4272-BA42-933EC2BF90D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD28E777-D89C-43F5-8253-3064599C6401}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18299,7 +18299,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA093EB-28AC-42A0-A458-E608D7811EC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA6F6E1-C231-4E28-AA87-D5433278B612}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C92B727-8E60-42DC-A356-0AB8FE6AF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA00597-5286-424C-BA15-C1ADA9F5E724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="公開データ" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">公開データ!$A$1:$DU$91</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">公開データ!$1:$1</definedName>
     <definedName name="診療所台帳" localSheetId="0">公開データ!$B$1:$DN$2</definedName>
     <definedName name="診療所台帳">#REF!</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="756">
   <si>
     <t>施設区分</t>
   </si>
@@ -1510,7 +1511,7 @@
     <t>医療法人　尚和会</t>
   </si>
   <si>
-    <t>黒木　明彦</t>
+    <t>下村　康正</t>
   </si>
   <si>
     <t>昭和 27年08月08日</t>
@@ -2278,7 +2279,7 @@
     <t>医療法人　堀尾会</t>
   </si>
   <si>
-    <t>平田　好文</t>
+    <t>小原　健志</t>
   </si>
   <si>
     <t>小児リハビリテーション科 脳神経内科</t>
@@ -2805,9 +2806,7 @@
   </sheetPr>
   <dimension ref="A1:DN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DO7" sqref="DO7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13241,7 +13240,9 @@
       <c r="BT63" s="12"/>
       <c r="BU63" s="12"/>
       <c r="BV63" s="12"/>
-      <c r="BW63" s="12"/>
+      <c r="BW63" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BX63" s="12"/>
       <c r="BY63" s="12"/>
       <c r="BZ63" s="12"/>
@@ -17958,8 +17959,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f36473a6175c50f896b3e1cbc3f13916">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f6313d8d0f967e45b58df0cfae536c6" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a1eafba633277ec00883d4e10cd96e51">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96273a645e27db515b242c1154665ce1" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="31AAD03C-A983-4B16-863F-54F1EAB739D9"/>
     <xsd:import namespace="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36"/>
     <xsd:import namespace="31aad03c-a983-4b16-863f-54f1eab739d9"/>
@@ -18270,7 +18271,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C706C-D88D-4E9C-87E7-8CC75E6A1A51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD98DE7D-37D9-4306-B9B2-8781839912EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18291,7 +18292,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD28E777-D89C-43F5-8253-3064599C6401}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B411075A-4AB6-408C-BAFE-EC97047262B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18299,7 +18300,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA6F6E1-C231-4E28-AA87-D5433278B612}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E1DDB5-A564-4A5D-A14B-7758453E255F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\05_各課提出ファイル\R6.8\医療対策課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA00597-5286-424C-BA15-C1ADA9F5E724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A413B2-5027-4F8D-8C81-E4BFE47C2ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11280"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="公開データ" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">公開データ!$A$1:$DU$91</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">公開データ!$1:$1</definedName>
     <definedName name="診療所台帳" localSheetId="0">公開データ!$B$1:$DN$2</definedName>
     <definedName name="診療所台帳">#REF!</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="756">
   <si>
     <t>施設区分</t>
   </si>
@@ -2806,21 +2805,23 @@
   </sheetPr>
   <dimension ref="A1:DN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DO7" sqref="DO7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="116" width="3.7109375" style="5" customWidth="1"/>
-    <col min="117" max="118" width="18.42578125" style="4" customWidth="1"/>
-    <col min="119" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
+    <col min="8" max="12" width="4.33203125" style="2" customWidth="1"/>
+    <col min="13" max="116" width="3.6640625" style="5" customWidth="1"/>
+    <col min="117" max="118" width="18.44140625" style="4" customWidth="1"/>
+    <col min="119" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3179,7 +3180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:118" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:118" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>118</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>118</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>118</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>118</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>118</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>118</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>118</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="12" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="14" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>118</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>118</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>118</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>118</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>118</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>118</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>118</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>118</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>118</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>118</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>118</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>118</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>118</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>118</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>118</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>118</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>118</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>118</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>118</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>118</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>118</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>118</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="41" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>118</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="42" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>118</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>118</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>118</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>118</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>118</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
@@ -11227,7 +11228,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>118</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="52" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>118</v>
       </c>
@@ -11433,9 +11434,7 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
-      <c r="AD52" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
@@ -11535,7 +11534,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>118</v>
       </c>
@@ -11685,7 +11684,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>118</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
@@ -12325,7 +12324,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -12479,7 +12478,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
@@ -12637,7 +12636,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>118</v>
       </c>
@@ -12959,7 +12958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>118</v>
       </c>
@@ -13129,7 +13128,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>118</v>
       </c>
@@ -13295,7 +13294,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="64" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>118</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>118</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="66" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>118</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="67" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="68" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>118</v>
       </c>
@@ -14109,7 +14108,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>118</v>
       </c>
@@ -14267,7 +14266,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="70" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>118</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="71" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>118</v>
       </c>
@@ -14583,7 +14582,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="72" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>118</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="73" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>118</v>
       </c>
@@ -14883,7 +14882,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>118</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>118</v>
       </c>
@@ -15209,7 +15208,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="76" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>118</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="77" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>118</v>
       </c>
@@ -15521,7 +15520,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>118</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>118</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -16165,7 +16164,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>118</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
@@ -16483,7 +16482,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>118</v>
       </c>
@@ -16841,7 +16840,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>118</v>
       </c>
@@ -17009,7 +17008,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="87" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>118</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>118</v>
       </c>
@@ -17593,7 +17592,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>118</v>
       </c>
@@ -17797,7 +17796,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>118</v>
       </c>
@@ -18271,7 +18270,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD98DE7D-37D9-4306-B9B2-8781839912EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ACB5180-FF8E-4A24-A4EC-8BF0450DA036}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18292,7 +18291,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B411075A-4AB6-408C-BAFE-EC97047262B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4119030-EE68-44E9-8FAE-86956F95B80D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18300,7 +18299,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E1DDB5-A564-4A5D-A14B-7758453E255F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C41B87A-840C-4FAB-974A-D0A80C6AC65F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\05_各課提出ファイル\R6.8\医療対策課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A413B2-5027-4F8D-8C81-E4BFE47C2ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1500E94-66D0-40C4-AE83-562B41E93211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="756">
   <si>
     <t>施設区分</t>
   </si>
@@ -1849,7 +1849,7 @@
     <t>社会医療法人　寿量会</t>
   </si>
   <si>
-    <t>中島　英親</t>
+    <t>寺本　憲市郎</t>
   </si>
   <si>
     <t>小児形成外科 血管外科 脳神経内科</t>
@@ -2347,7 +2347,7 @@
     <t>社会医療法人社団高野会</t>
   </si>
   <si>
-    <t>髙野　正太</t>
+    <t>辻　順行</t>
   </si>
   <si>
     <t>肛門内科 大腸・肛門リハビリテーション科 緩和ケア内科</t>
@@ -2806,22 +2806,22 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DO7" sqref="DO7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
-    <col min="8" max="12" width="4.33203125" style="2" customWidth="1"/>
-    <col min="13" max="116" width="3.6640625" style="5" customWidth="1"/>
-    <col min="117" max="118" width="18.44140625" style="4" customWidth="1"/>
-    <col min="119" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
+    <col min="8" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="116" width="3.7109375" style="5" customWidth="1"/>
+    <col min="117" max="118" width="18.42578125" style="4" customWidth="1"/>
+    <col min="119" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3180,7 +3180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:118" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:118" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>118</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>118</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>118</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>118</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>118</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>118</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>118</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="12" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="14" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>118</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>118</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>118</v>
       </c>
@@ -5545,9 +5545,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
@@ -5656,7 +5654,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>118</v>
       </c>
@@ -5816,7 +5814,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>118</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>118</v>
       </c>
@@ -6126,7 +6124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>118</v>
       </c>
@@ -6288,7 +6286,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>118</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
@@ -6600,7 +6598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>118</v>
       </c>
@@ -6760,7 +6758,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>118</v>
       </c>
@@ -6930,7 +6928,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>118</v>
       </c>
@@ -7102,7 +7100,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>118</v>
       </c>
@@ -7250,7 +7248,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>118</v>
       </c>
@@ -7408,7 +7406,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>118</v>
       </c>
@@ -7596,7 +7594,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>118</v>
       </c>
@@ -7754,7 +7752,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>118</v>
       </c>
@@ -7918,7 +7916,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
@@ -8108,7 +8106,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>118</v>
       </c>
@@ -8266,7 +8264,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
@@ -8416,7 +8414,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>118</v>
       </c>
@@ -8564,7 +8562,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -8734,7 +8732,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>118</v>
       </c>
@@ -8912,7 +8910,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>118</v>
       </c>
@@ -9062,7 +9060,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
@@ -9212,7 +9210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>118</v>
       </c>
@@ -9374,7 +9372,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>118</v>
       </c>
@@ -9534,7 +9532,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="41" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>118</v>
       </c>
@@ -9716,7 +9714,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="42" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
@@ -9882,7 +9880,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>118</v>
       </c>
@@ -10032,7 +10030,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
@@ -10186,7 +10184,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>118</v>
       </c>
@@ -10348,7 +10346,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>118</v>
       </c>
@@ -10560,7 +10558,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>118</v>
       </c>
@@ -10722,7 +10720,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -10874,7 +10872,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>118</v>
       </c>
@@ -11052,7 +11050,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
@@ -11228,7 +11226,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>118</v>
       </c>
@@ -11378,7 +11376,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="52" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>118</v>
       </c>
@@ -11534,7 +11532,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>118</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>118</v>
       </c>
@@ -11836,7 +11834,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -11990,7 +11988,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
@@ -12154,7 +12152,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -12478,7 +12476,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
@@ -12636,7 +12634,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
@@ -12790,7 +12788,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>118</v>
       </c>
@@ -12958,7 +12956,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>118</v>
       </c>
@@ -13128,7 +13126,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>118</v>
       </c>
@@ -13294,7 +13292,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="64" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>118</v>
       </c>
@@ -13478,7 +13476,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>118</v>
       </c>
@@ -13628,7 +13626,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="66" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>118</v>
       </c>
@@ -13778,7 +13776,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="67" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
@@ -13952,7 +13950,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="68" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>118</v>
       </c>
@@ -14108,7 +14106,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>118</v>
       </c>
@@ -14266,7 +14264,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="70" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>118</v>
       </c>
@@ -14434,7 +14432,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="71" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>118</v>
       </c>
@@ -14582,7 +14580,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="72" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>118</v>
       </c>
@@ -14734,7 +14732,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="73" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>118</v>
       </c>
@@ -14882,7 +14880,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>118</v>
       </c>
@@ -15058,7 +15056,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>118</v>
       </c>
@@ -15208,7 +15206,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="76" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>118</v>
       </c>
@@ -15372,7 +15370,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="77" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>118</v>
       </c>
@@ -15520,7 +15518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>118</v>
       </c>
@@ -15672,7 +15670,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -15840,7 +15838,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>118</v>
       </c>
@@ -16008,7 +16006,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -16164,7 +16162,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>118</v>
       </c>
@@ -16332,7 +16330,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
@@ -16482,7 +16480,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -16662,7 +16660,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>118</v>
       </c>
@@ -16840,7 +16838,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>118</v>
       </c>
@@ -17008,7 +17006,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="87" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>118</v>
       </c>
@@ -17168,7 +17166,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -17378,7 +17376,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>118</v>
       </c>
@@ -17592,7 +17590,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>118</v>
       </c>
@@ -17796,7 +17794,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>118</v>
       </c>
@@ -17958,6 +17956,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a1eafba633277ec00883d4e10cd96e51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96273a645e27db515b242c1154665ce1" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="31AAD03C-A983-4B16-863F-54F1EAB739D9"/>
@@ -18246,15 +18253,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18270,7 +18268,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ACB5180-FF8E-4A24-A4EC-8BF0450DA036}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4561E363-8DC2-4498-9021-2BC05380028F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CF70DC-688E-4770-BE0D-009205791C5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18290,16 +18296,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4119030-EE68-44E9-8FAE-86956F95B80D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C41B87A-840C-4FAB-974A-D0A80C6AC65F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D68D3300-8546-4D5A-B2CF-C35276940E41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1500E94-66D0-40C4-AE83-562B41E93211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A54985-7B9E-4153-8431-1F09DB113BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="診療所台帳" localSheetId="0">公開データ!$B$1:$DN$2</definedName>
     <definedName name="診療所台帳">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="755">
   <si>
     <t>施設区分</t>
   </si>
@@ -1315,7 +1315,7 @@
     <t>医療法人社団　ピネル会</t>
   </si>
   <si>
-    <t>竹内　良輔</t>
+    <t>竹内　有輔</t>
   </si>
   <si>
     <t>昭和 46年11月30日</t>
@@ -2077,7 +2077,7 @@
     <t>熊本市</t>
   </si>
   <si>
-    <t>掃本　誠治</t>
+    <t>三角　郁夫</t>
   </si>
   <si>
     <t>平成 22年03月23日</t>
@@ -2161,7 +2161,7 @@
     <t>社会医療法人令和会</t>
   </si>
   <si>
-    <t>平川　敬</t>
+    <t>生田　拓也</t>
   </si>
   <si>
     <t>血管外科</t>
@@ -2258,9 +2258,6 @@
   </si>
   <si>
     <t>坂本　憲史</t>
-  </si>
-  <si>
-    <t>内視鏡内科</t>
   </si>
   <si>
     <t>平成 24年08月01日</t>
@@ -2806,7 +2803,7 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="DH7" sqref="DH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3543,7 +3540,7 @@
         <v>682</v>
       </c>
       <c r="DN3" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3715,22 +3712,22 @@
         <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -3870,10 +3867,10 @@
         <v>125</v>
       </c>
       <c r="DM5" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="DN5" s="11" t="s">
         <v>730</v>
-      </c>
-      <c r="DN5" s="11" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,22 +3878,22 @@
         <v>118</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>736</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -4056,10 +4053,10 @@
         <v>125</v>
       </c>
       <c r="DM6" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="DN6" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="DN6" s="11" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4067,22 +4064,22 @@
         <v>118</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>713</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>714</v>
       </c>
       <c r="H7" s="9">
         <v>193</v>
@@ -4207,7 +4204,7 @@
       <c r="DL7" s="12"/>
       <c r="DM7" s="11"/>
       <c r="DN7" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4215,22 +4212,22 @@
         <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -4328,7 +4325,9 @@
       <c r="BY8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BZ8" s="12"/>
+      <c r="BZ8" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="CA8" s="12"/>
       <c r="CB8" s="12"/>
       <c r="CC8" s="12"/>
@@ -4372,10 +4371,10 @@
         <v>125</v>
       </c>
       <c r="DM8" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="DN8" s="11" t="s">
         <v>722</v>
-      </c>
-      <c r="DN8" s="11" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4383,22 +4382,22 @@
         <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>706</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -4534,10 +4533,10 @@
       <c r="DK9" s="12"/>
       <c r="DL9" s="12"/>
       <c r="DM9" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="DN9" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="DN9" s="11" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,9 +4581,7 @@
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -4613,9 +4610,7 @@
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
-      <c r="AS10" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12"/>
@@ -4624,7 +4619,9 @@
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
+      <c r="BB10" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BC10" s="12"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
@@ -4645,7 +4642,9 @@
       <c r="BT10" s="12"/>
       <c r="BU10" s="12"/>
       <c r="BV10" s="12"/>
-      <c r="BW10" s="12"/>
+      <c r="BW10" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BX10" s="12"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -4688,12 +4687,12 @@
       <c r="DI10" s="12"/>
       <c r="DJ10" s="12"/>
       <c r="DK10" s="12"/>
-      <c r="DL10" s="12"/>
-      <c r="DM10" s="11" t="s">
+      <c r="DL10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM10" s="11"/>
+      <c r="DN10" s="11" t="s">
         <v>700</v>
-      </c>
-      <c r="DN10" s="11" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5516,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L16" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>125</v>
@@ -9529,7 +9528,7 @@
       <c r="DL40" s="12"/>
       <c r="DM40" s="11"/>
       <c r="DN40" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9711,7 +9710,7 @@
       </c>
       <c r="DM41" s="11"/>
       <c r="DN41" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10481,7 +10480,9 @@
       <c r="BR46" s="12"/>
       <c r="BS46" s="12"/>
       <c r="BT46" s="12"/>
-      <c r="BU46" s="12"/>
+      <c r="BU46" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BV46" s="12"/>
       <c r="BW46" s="12" t="s">
         <v>125</v>
@@ -10988,9 +10989,7 @@
       <c r="BW49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BX49" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BX49" s="12"/>
       <c r="BY49" s="12" t="s">
         <v>125</v>
       </c>
@@ -11231,22 +11230,22 @@
         <v>118</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>751</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -11373,7 +11372,7 @@
       <c r="DL51" s="12"/>
       <c r="DM51" s="11"/>
       <c r="DN51" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16843,22 +16842,22 @@
         <v>118</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="H86" s="9">
         <v>0</v>
@@ -17003,7 +17002,7 @@
       <c r="DL86" s="12"/>
       <c r="DM86" s="11"/>
       <c r="DN86" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -18268,7 +18267,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4561E363-8DC2-4498-9021-2BC05380028F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCA08CE-E55E-42BA-9CEE-04377D0B8BC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18276,7 +18275,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CF70DC-688E-4770-BE0D-009205791C5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{757071E0-93BE-40DC-A5F8-25A486FBC5DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18297,7 +18296,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D68D3300-8546-4D5A-B2CF-C35276940E41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4CBF88-C69A-4AD5-9506-F6CA4849FE2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A54985-7B9E-4153-8431-1F09DB113BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F350A1-9389-49AE-A96F-0B348B920720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="公開データ" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="診療所台帳" localSheetId="0">公開データ!$B$1:$DN$2</definedName>
     <definedName name="診療所台帳">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="754">
   <si>
     <t>施設区分</t>
   </si>
@@ -703,7 +703,7 @@
     <t>鶴崎　成幸</t>
   </si>
   <si>
-    <t>脳神経内科 糖尿病・代謝内科</t>
+    <t>糖尿病・代謝内科</t>
   </si>
   <si>
     <t>昭和 48年07月16日</t>
@@ -1468,9 +1468,6 @@
     <t>吉田　俊彰</t>
   </si>
   <si>
-    <t>糖尿病・代謝内科</t>
-  </si>
-  <si>
     <t>昭和 26年08月01日</t>
   </si>
   <si>
@@ -1942,7 +1939,7 @@
     <t>昭和 60年01月31日</t>
   </si>
   <si>
-    <t>くまもと乳腺・胃腸外科病院</t>
+    <t>くまもと乳腺外科病院</t>
   </si>
   <si>
     <t xml:space="preserve">熊本市中央区南熊本4丁目3-5 </t>
@@ -1954,7 +1951,7 @@
     <t>医療法人社団　世安会</t>
   </si>
   <si>
-    <t>澤田　俊彦</t>
+    <t>村本　一浩</t>
   </si>
   <si>
     <t>乳腺内科 がん化学療法内科</t>
@@ -2410,7 +2407,7 @@
     <t>医療法人社団　井上会</t>
   </si>
   <si>
-    <t>木村　竜也</t>
+    <t>井上　佳子</t>
   </si>
   <si>
     <t>昭和 56年01月01日</t>
@@ -2803,22 +2800,22 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DH7" sqref="DH7"/>
+      <selection activeCell="DN1" sqref="DN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="116" width="3.7109375" style="5" customWidth="1"/>
-    <col min="117" max="118" width="18.42578125" style="4" customWidth="1"/>
-    <col min="119" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
+    <col min="8" max="12" width="4.33203125" style="2" customWidth="1"/>
+    <col min="13" max="116" width="3.6640625" style="5" customWidth="1"/>
+    <col min="117" max="118" width="18.44140625" style="4" customWidth="1"/>
+    <col min="119" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3177,27 +3174,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:118" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:118" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>667</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
@@ -3337,33 +3334,33 @@
         <v>125</v>
       </c>
       <c r="DM2" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="DN2" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="DN2" s="11" t="s">
-        <v>669</v>
-      </c>
     </row>
-    <row r="3" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>681</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
@@ -3537,33 +3534,33 @@
         <v>125</v>
       </c>
       <c r="DM3" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DN3" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -3701,33 +3698,33 @@
       <c r="DK4" s="12"/>
       <c r="DL4" s="12"/>
       <c r="DM4" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="DN4" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="DN4" s="11" t="s">
-        <v>523</v>
-      </c>
     </row>
-    <row r="5" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>727</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>728</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -3867,33 +3864,33 @@
         <v>125</v>
       </c>
       <c r="DM5" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="DN5" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="DN5" s="11" t="s">
-        <v>730</v>
-      </c>
     </row>
-    <row r="6" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>735</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -4053,33 +4050,33 @@
         <v>125</v>
       </c>
       <c r="DM6" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="DN6" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="DN6" s="11" t="s">
-        <v>737</v>
-      </c>
     </row>
-    <row r="7" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="H7" s="9">
         <v>193</v>
@@ -4204,30 +4201,30 @@
       <c r="DL7" s="12"/>
       <c r="DM7" s="11"/>
       <c r="DN7" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>720</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -4371,33 +4368,33 @@
         <v>125</v>
       </c>
       <c r="DM8" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="DN8" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="DN8" s="11" t="s">
-        <v>722</v>
-      </c>
     </row>
-    <row r="9" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>705</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -4533,33 +4530,33 @@
       <c r="DK9" s="12"/>
       <c r="DL9" s="12"/>
       <c r="DM9" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="DN9" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="DN9" s="11" t="s">
-        <v>707</v>
-      </c>
     </row>
-    <row r="10" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -4692,30 +4689,30 @@
       </c>
       <c r="DM10" s="11"/>
       <c r="DN10" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>370</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -4850,30 +4847,30 @@
         <v>196</v>
       </c>
       <c r="DN11" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
-    <row r="12" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>598</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -4946,17 +4943,11 @@
       <c r="BJ12" s="12"/>
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
-      <c r="BM12" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
-      <c r="BO12" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BO12" s="12"/>
       <c r="BP12" s="12"/>
-      <c r="BQ12" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BQ12" s="12"/>
       <c r="BR12" s="12"/>
       <c r="BS12" s="12"/>
       <c r="BT12" s="12"/>
@@ -5009,33 +5000,33 @@
         <v>125</v>
       </c>
       <c r="DM12" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="DN12" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="DN12" s="11" t="s">
-        <v>600</v>
-      </c>
     </row>
-    <row r="13" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>265</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>686</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>687</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -5164,30 +5155,30 @@
       <c r="DL13" s="12"/>
       <c r="DM13" s="11"/>
       <c r="DN13" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>639</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -5324,30 +5315,30 @@
       <c r="DL14" s="12"/>
       <c r="DM14" s="11"/>
       <c r="DN14" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="15" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>631</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>632</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -5480,30 +5471,30 @@
       </c>
       <c r="DM15" s="11"/>
       <c r="DN15" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>624</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -5647,33 +5638,33 @@
       <c r="DK16" s="12"/>
       <c r="DL16" s="12"/>
       <c r="DM16" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="DN16" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="DN16" s="11" t="s">
-        <v>626</v>
-      </c>
     </row>
-    <row r="17" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>611</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>612</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -5810,10 +5801,10 @@
       </c>
       <c r="DM17" s="11"/>
       <c r="DN17" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="18" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>118</v>
       </c>
@@ -5965,7 +5956,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>118</v>
       </c>
@@ -6123,27 +6114,27 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>251</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>605</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -6282,30 +6273,30 @@
       </c>
       <c r="DM20" s="11"/>
       <c r="DN20" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>506</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
@@ -6435,13 +6426,13 @@
       <c r="DK21" s="12"/>
       <c r="DL21" s="12"/>
       <c r="DM21" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="DN21" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="DN21" s="11" t="s">
-        <v>508</v>
-      </c>
     </row>
-    <row r="22" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
@@ -6597,7 +6588,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>118</v>
       </c>
@@ -6757,7 +6748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>118</v>
       </c>
@@ -6927,7 +6918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>118</v>
       </c>
@@ -7099,7 +7090,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>118</v>
       </c>
@@ -7247,7 +7238,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>118</v>
       </c>
@@ -7405,7 +7396,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>118</v>
       </c>
@@ -7593,7 +7584,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>118</v>
       </c>
@@ -7751,7 +7742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>118</v>
       </c>
@@ -7915,7 +7906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
@@ -8105,7 +8096,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>118</v>
       </c>
@@ -8263,7 +8254,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
@@ -8413,7 +8404,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>118</v>
       </c>
@@ -8561,27 +8552,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
@@ -8725,13 +8716,13 @@
         <v>125</v>
       </c>
       <c r="DM35" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="DN35" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="DN35" s="11" t="s">
-        <v>516</v>
-      </c>
     </row>
-    <row r="36" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>118</v>
       </c>
@@ -8909,27 +8900,27 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="H37" s="9">
         <v>135</v>
@@ -9056,10 +9047,10 @@
       <c r="DL37" s="12"/>
       <c r="DM37" s="11"/>
       <c r="DN37" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="38" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
@@ -9209,27 +9200,27 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
@@ -9368,10 +9359,10 @@
       </c>
       <c r="DM39" s="11"/>
       <c r="DN39" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>118</v>
       </c>
@@ -9528,10 +9519,10 @@
       <c r="DL40" s="12"/>
       <c r="DM40" s="11"/>
       <c r="DN40" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="41" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>118</v>
       </c>
@@ -9710,10 +9701,10 @@
       </c>
       <c r="DM41" s="11"/>
       <c r="DN41" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
-    <row r="42" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
@@ -9879,7 +9870,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>118</v>
       </c>
@@ -10029,7 +10020,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
@@ -10183,27 +10174,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>251</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>592</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
@@ -10342,30 +10333,30 @@
       </c>
       <c r="DM45" s="11"/>
       <c r="DN45" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="46" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="H46" s="9">
         <v>0</v>
@@ -10553,13 +10544,13 @@
         <v>125</v>
       </c>
       <c r="DM46" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="DN46" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="DN46" s="11" t="s">
-        <v>544</v>
-      </c>
     </row>
-    <row r="47" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>118</v>
       </c>
@@ -10721,27 +10712,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="H48" s="9">
         <v>0</v>
@@ -10870,30 +10861,30 @@
       <c r="DL48" s="12"/>
       <c r="DM48" s="11"/>
       <c r="DN48" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>563</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
@@ -11043,13 +11034,13 @@
         <v>125</v>
       </c>
       <c r="DM49" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="DN49" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="DN49" s="11" t="s">
-        <v>565</v>
-      </c>
     </row>
-    <row r="50" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
@@ -11225,27 +11216,27 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -11372,10 +11363,10 @@
       <c r="DL51" s="12"/>
       <c r="DM51" s="11"/>
       <c r="DN51" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>118</v>
       </c>
@@ -11446,7 +11437,9 @@
       <c r="AP52" s="12"/>
       <c r="AQ52" s="12"/>
       <c r="AR52" s="12"/>
-      <c r="AS52" s="12"/>
+      <c r="AS52" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="AT52" s="12"/>
       <c r="AU52" s="12"/>
       <c r="AV52" s="12"/>
@@ -11531,27 +11524,27 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>571</v>
       </c>
       <c r="H53" s="9">
         <v>0</v>
@@ -11678,10 +11671,10 @@
       </c>
       <c r="DM53" s="11"/>
       <c r="DN53" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="54" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>118</v>
       </c>
@@ -11833,27 +11826,27 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="H55" s="9">
         <v>0</v>
@@ -11981,33 +11974,33 @@
         <v>125</v>
       </c>
       <c r="DM55" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="DN55" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="DN55" s="11" t="s">
-        <v>537</v>
-      </c>
     </row>
-    <row r="56" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="D56" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="F56" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>528</v>
       </c>
       <c r="H56" s="9">
         <v>0</v>
@@ -12148,30 +12141,30 @@
       <c r="DL56" s="12"/>
       <c r="DM56" s="11"/>
       <c r="DN56" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="H57" s="9">
         <v>0</v>
@@ -12318,10 +12311,10 @@
       <c r="DL57" s="12"/>
       <c r="DM57" s="11"/>
       <c r="DN57" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -12475,7 +12468,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
@@ -12633,27 +12626,27 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="H60" s="9">
         <v>190</v>
@@ -12784,10 +12777,10 @@
       <c r="DL60" s="12"/>
       <c r="DM60" s="11"/>
       <c r="DN60" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
-    <row r="61" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>118</v>
       </c>
@@ -12878,9 +12871,7 @@
       <c r="BB61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BC61" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BC61" s="12"/>
       <c r="BD61" s="12"/>
       <c r="BE61" s="12"/>
       <c r="BF61" s="12"/>
@@ -12955,7 +12946,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>118</v>
       </c>
@@ -13125,27 +13116,27 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="E63" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="H63" s="9">
         <v>0</v>
@@ -13285,13 +13276,13 @@
       <c r="DK63" s="12"/>
       <c r="DL63" s="12"/>
       <c r="DM63" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="DN63" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="DN63" s="11" t="s">
-        <v>587</v>
-      </c>
     </row>
-    <row r="64" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>118</v>
       </c>
@@ -13475,7 +13466,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>118</v>
       </c>
@@ -13625,27 +13616,27 @@
         <v>386</v>
       </c>
     </row>
-    <row r="66" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="E66" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="H66" s="9">
         <v>234</v>
@@ -13772,30 +13763,30 @@
       <c r="DL66" s="12"/>
       <c r="DM66" s="11"/>
       <c r="DN66" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="67" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>675</v>
       </c>
       <c r="H67" s="9">
         <v>78</v>
@@ -13946,10 +13937,10 @@
         <v>196</v>
       </c>
       <c r="DN67" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
-    <row r="68" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>118</v>
       </c>
@@ -14105,27 +14096,27 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="E69" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>660</v>
       </c>
       <c r="H69" s="9">
         <v>0</v>
@@ -14260,30 +14251,30 @@
       <c r="DL69" s="12"/>
       <c r="DM69" s="11"/>
       <c r="DN69" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="70" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="D70" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="E70" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>578</v>
       </c>
       <c r="H70" s="9">
         <v>0</v>
@@ -14428,30 +14419,30 @@
       <c r="DL70" s="12"/>
       <c r="DM70" s="11"/>
       <c r="DN70" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="E71" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="H71" s="9">
         <v>160</v>
@@ -14576,30 +14567,30 @@
       <c r="DL71" s="12"/>
       <c r="DM71" s="11"/>
       <c r="DN71" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="72" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="E72" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="H72" s="9">
         <v>198</v>
@@ -14728,10 +14719,10 @@
       <c r="DL72" s="12"/>
       <c r="DM72" s="11"/>
       <c r="DN72" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="73" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>118</v>
       </c>
@@ -14879,7 +14870,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>118</v>
       </c>
@@ -15055,27 +15046,27 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="H75" s="9">
         <v>199</v>
@@ -15202,30 +15193,30 @@
       <c r="DL75" s="12"/>
       <c r="DM75" s="11"/>
       <c r="DN75" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="76" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>493</v>
       </c>
       <c r="H76" s="9">
         <v>0</v>
@@ -15366,10 +15357,10 @@
       <c r="DL76" s="12"/>
       <c r="DM76" s="11"/>
       <c r="DN76" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="77" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>118</v>
       </c>
@@ -15517,27 +15508,27 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="D78" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="G78" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>500</v>
       </c>
       <c r="H78" s="9">
         <v>221</v>
@@ -15666,10 +15657,10 @@
       </c>
       <c r="DM78" s="11"/>
       <c r="DN78" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -15837,7 +15828,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>118</v>
       </c>
@@ -16005,27 +15996,27 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="H81" s="9">
         <v>198</v>
@@ -16158,10 +16149,10 @@
       <c r="DL81" s="12"/>
       <c r="DM81" s="11"/>
       <c r="DN81" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>118</v>
       </c>
@@ -16329,27 +16320,27 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="E83" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="F83" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="H83" s="9">
         <v>250</v>
@@ -16476,10 +16467,10 @@
       <c r="DL83" s="12"/>
       <c r="DM83" s="11"/>
       <c r="DN83" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -16653,13 +16644,13 @@
       <c r="DK84" s="12"/>
       <c r="DL84" s="12"/>
       <c r="DM84" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="DN84" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="DN84" s="11" t="s">
-        <v>437</v>
-      </c>
     </row>
-    <row r="85" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>118</v>
       </c>
@@ -16837,27 +16828,27 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>743</v>
       </c>
       <c r="H86" s="9">
         <v>0</v>
@@ -17002,10 +16993,10 @@
       <c r="DL86" s="12"/>
       <c r="DM86" s="11"/>
       <c r="DN86" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
-    <row r="87" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>118</v>
       </c>
@@ -17165,7 +17156,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -17375,27 +17366,27 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="E89" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="G89" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="H89" s="9">
         <v>50</v>
@@ -17583,13 +17574,13 @@
         <v>125</v>
       </c>
       <c r="DM89" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="DN89" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="DN89" s="11" t="s">
-        <v>473</v>
-      </c>
     </row>
-    <row r="90" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>118</v>
       </c>
@@ -17793,7 +17784,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:118" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>118</v>
       </c>
@@ -17955,15 +17946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a1eafba633277ec00883d4e10cd96e51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96273a645e27db515b242c1154665ce1" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="31AAD03C-A983-4B16-863F-54F1EAB739D9"/>
@@ -18252,6 +18234,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18267,15 +18258,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCA08CE-E55E-42BA-9CEE-04377D0B8BC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{757071E0-93BE-40DC-A5F8-25A486FBC5DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CF3892-8C4C-48BE-9175-E23580A94330}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18295,8 +18278,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E6C229-B56E-41B4-A555-9A0F37FDBD3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4CBF88-C69A-4AD5-9506-F6CA4849FE2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A06469-5DF0-429E-BE57-A898F523DE61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\05_各課提出ファイル\R7.3\医療対策課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F350A1-9389-49AE-A96F-0B348B920720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37887912-0179-4D41-A220-6B22EAD50431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="754">
   <si>
     <t>施設区分</t>
   </si>
@@ -2799,9 +2799,7 @@
   </sheetPr>
   <dimension ref="A1:DN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DN1" sqref="DN1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5506,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>125</v>
@@ -9160,7 +9158,9 @@
       <c r="CC38" s="12"/>
       <c r="CD38" s="12"/>
       <c r="CE38" s="12"/>
-      <c r="CF38" s="12"/>
+      <c r="CF38" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="CG38" s="12"/>
       <c r="CH38" s="12"/>
       <c r="CI38" s="12"/>
@@ -17946,8 +17946,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a1eafba633277ec00883d4e10cd96e51">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96273a645e27db515b242c1154665ce1" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="216f331b4d3aa8008f35022f7d74240d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a41bd4b8d4f39fe761a1445c1a60a7ab" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="31AAD03C-A983-4B16-863F-54F1EAB739D9"/>
     <xsd:import namespace="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36"/>
     <xsd:import namespace="31aad03c-a983-4b16-863f-54f1eab739d9"/>
@@ -17978,6 +17978,7 @@
                 <xsd:element ref="ns5:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -18115,6 +18116,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="28" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="29" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -18258,7 +18264,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CF3892-8C4C-48BE-9175-E23580A94330}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A1B613D-CA1F-4063-8F9B-35FA94698213}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18279,7 +18285,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E6C229-B56E-41B4-A555-9A0F37FDBD3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385E7C06-B979-49FF-B1F6-653E142727BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18287,7 +18293,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A06469-5DF0-429E-BE57-A898F523DE61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4116600A-F37F-4BD0-9B44-2096484D64E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
